--- a/ProductionTests/Sthv2.1.5.xlsx
+++ b/ProductionTests/Sthv2.1.5.xlsx
@@ -1371,7 +1371,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20191002</t>
+          <t>20191003</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>0.29144731163978577</t>
+          <t>0.34332799911499023</t>
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0.07782012969255447</t>
+          <t>0.057728882879018784</t>
         </is>
       </c>
       <c r="F9" s="2" t="n"/>

--- a/ProductionTests/Sthv2.1.5.xlsx
+++ b/ProductionTests/Sthv2.1.5.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16896" windowWidth="30936" xWindow="15252" yWindow="-108"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="System Configuration0@0x0" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="Calibration0@0x8" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -28,12 +29,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b val="1"/>
       <sz val="20"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <sz val="12"/>
     </font>
   </fonts>
@@ -63,7 +62,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Standard" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -360,23 +359,23 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="26.42578125"/>
-    <col customWidth="1" max="2" min="2" width="14.42578125"/>
-    <col customWidth="1" max="3" min="3" width="12.85546875"/>
-    <col customWidth="1" max="4" min="4" width="17.5703125"/>
-    <col customWidth="1" max="5" min="5" width="11.140625"/>
-    <col customWidth="1" max="6" min="6" width="9.5703125"/>
-    <col customWidth="1" max="7" min="7" width="12.85546875"/>
-    <col customWidth="1" max="8" min="8" width="79.140625"/>
+    <col customWidth="1" max="1" min="1" width="26.4"/>
+    <col customWidth="1" max="2" min="2" width="14.4"/>
+    <col customWidth="1" max="3" min="3" width="12.8"/>
+    <col customWidth="1" max="4" min="4" width="17.6"/>
+    <col customWidth="1" max="5" min="5" width="11.2"/>
+    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
+    <col customWidth="1" max="7" min="7" width="12.8"/>
+    <col customWidth="1" max="8" min="8" width="79.2"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26.25" r="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
@@ -418,7 +417,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2">
+    <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Init</t>
@@ -448,7 +447,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="3">
+    <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Radio Name</t>
@@ -473,7 +472,7 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>ASCII</t>
+          <t>UTF8</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
@@ -482,7 +481,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="4">
+    <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Sleep Time 1</t>
@@ -518,7 +517,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="5">
+    <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Advertisement Time 1</t>
@@ -554,7 +553,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="6">
+    <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Sleep Time 2</t>
@@ -590,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="7">
+    <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Advertisement Time 2</t>
@@ -643,19 +642,19 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="43.140625"/>
-    <col customWidth="1" max="2" min="2" width="14.42578125"/>
-    <col customWidth="1" max="3" min="3" width="12.85546875"/>
-    <col customWidth="1" max="4" min="4" width="17.5703125"/>
-    <col customWidth="1" max="5" min="5" width="387.5703125"/>
-    <col customWidth="1" max="6" min="6" width="9.5703125"/>
-    <col customWidth="1" max="7" min="7" width="12.85546875"/>
-    <col customWidth="1" max="8" min="8" width="104.42578125"/>
+    <col customWidth="1" max="1" min="1" width="43.2"/>
+    <col customWidth="1" max="2" min="2" width="14.4"/>
+    <col customWidth="1" max="3" min="3" width="12.8"/>
+    <col customWidth="1" max="4" min="4" width="17.6"/>
+    <col customWidth="1" max="5" min="5" width="387.6"/>
+    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
+    <col customWidth="1" max="7" min="7" width="12.8"/>
+    <col customWidth="1" max="8" min="8" width="104.4"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26.25" r="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
@@ -697,7 +696,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2">
+    <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>GTIN</t>
@@ -729,7 +728,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="3">
+    <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Hardware Revision - Reserved</t>
@@ -761,7 +760,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="4">
+    <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Hardware Revision - Major</t>
@@ -793,7 +792,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="5">
+    <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Hardware Revision - Minor</t>
@@ -825,7 +824,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="6">
+    <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Hardware Revision - Build</t>
@@ -857,7 +856,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="7">
+    <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Firmware Version Number - Reserved</t>
@@ -889,7 +888,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="8">
+    <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Firmware Version Number - Major</t>
@@ -921,7 +920,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="9">
+    <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Firmware Version Number - Minor</t>
@@ -953,7 +952,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="10">
+    <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Firmware Version Number - Build</t>
@@ -985,7 +984,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="11">
+    <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Release Name</t>
@@ -1019,7 +1018,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="12">
+    <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Serial Number</t>
@@ -1051,7 +1050,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="13">
+    <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Name</t>
@@ -1083,7 +1082,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="14">
+    <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>OEM Free Use</t>
@@ -1102,7 +1101,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>[0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0xc0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0]</t>
+          <t>[0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x20, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0]</t>
         </is>
       </c>
       <c r="F14" s="2" t="n"/>
@@ -1130,19 +1129,19 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="52.85546875"/>
-    <col customWidth="1" max="2" min="2" width="14.42578125"/>
-    <col customWidth="1" max="3" min="3" width="12.85546875"/>
-    <col customWidth="1" max="4" min="4" width="17.5703125"/>
-    <col customWidth="1" max="5" min="5" width="11.140625"/>
-    <col customWidth="1" max="6" min="6" width="10.85546875"/>
-    <col customWidth="1" max="7" min="7" width="12.85546875"/>
-    <col customWidth="1" max="8" min="8" width="99.5703125"/>
+    <col customWidth="1" max="1" min="1" width="52.8"/>
+    <col customWidth="1" max="2" min="2" width="14.4"/>
+    <col customWidth="1" max="3" min="3" width="12.8"/>
+    <col customWidth="1" max="4" min="4" width="17.6"/>
+    <col customWidth="1" max="5" min="5" width="11.2"/>
+    <col customWidth="1" max="6" min="6" width="10.8"/>
+    <col customWidth="1" max="7" min="7" width="12.8"/>
+    <col customWidth="1" max="8" min="8" width="99.59999999999999"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26.25" r="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
@@ -1184,7 +1183,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2">
+    <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Power On Cylces</t>
@@ -1216,7 +1215,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="3">
+    <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Power Off Cylces</t>
@@ -1248,7 +1247,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="4">
+    <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Operating Time since first power On</t>
@@ -1284,7 +1283,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="5">
+    <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Under Voltage Counter since first Power On</t>
@@ -1316,7 +1315,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="6">
+    <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Watchdog Reset Counter </t>
@@ -1336,11 +1335,7 @@
       <c r="E6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
+      <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>unsigned</t>
@@ -1352,7 +1347,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="7">
+    <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Production Date</t>
@@ -1369,10 +1364,8 @@
           <t>True</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>20191003</t>
-        </is>
+      <c r="E7" s="2" t="n">
+        <v>20190905</v>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
@@ -1390,7 +1383,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="8">
+    <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Batch Number</t>
@@ -1439,19 +1432,19 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="31.140625"/>
-    <col customWidth="1" max="2" min="2" width="14.42578125"/>
-    <col customWidth="1" max="3" min="3" width="12.85546875"/>
-    <col customWidth="1" max="4" min="4" width="17.5703125"/>
-    <col customWidth="1" max="5" min="5" width="11.140625"/>
-    <col customWidth="1" max="6" min="6" width="9.5703125"/>
-    <col customWidth="1" max="7" min="7" width="12.85546875"/>
-    <col customWidth="1" max="8" min="8" width="68.42578125"/>
+    <col customWidth="1" max="1" min="1" width="31.2"/>
+    <col customWidth="1" max="2" min="2" width="14.4"/>
+    <col customWidth="1" max="3" min="3" width="12.8"/>
+    <col customWidth="1" max="4" min="4" width="17.6"/>
+    <col customWidth="1" max="5" min="5" width="11.2"/>
+    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
+    <col customWidth="1" max="7" min="7" width="12.8"/>
+    <col customWidth="1" max="8" min="8" width="68.39999999999999"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26.25" r="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
@@ -1493,7 +1486,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2">
+    <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Acceleration X - K</t>
@@ -1527,7 +1520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="3">
+    <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Acceleration X - D</t>
@@ -1546,7 +1539,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>0.34332799911499023</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
@@ -1561,7 +1554,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="4">
+    <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Acceleration Y - K</t>
@@ -1595,7 +1588,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="5">
+    <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Acceleration Y - D</t>
@@ -1629,7 +1622,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="6">
+    <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Acceleration Z - K</t>
@@ -1663,7 +1656,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="7">
+    <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Acceleration Z - D</t>
@@ -1697,7 +1690,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="8">
+    <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Voltage Battery - K</t>
@@ -1731,7 +1724,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="9">
+    <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Voltage Battery - D</t>
@@ -1750,7 +1743,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0.057728882879018784</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F9" s="2" t="n"/>
@@ -1765,7 +1758,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="10">
+    <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Voltage Y - K</t>
@@ -1799,7 +1792,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="11">
+    <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Voltage Y - D</t>
@@ -1833,7 +1826,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="12">
+    <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Voltage Z - K</t>
@@ -1867,7 +1860,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="13">
+    <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Voltage Z - D</t>
@@ -1901,7 +1894,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="14">
+    <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Internal Temperature - K</t>
@@ -1935,7 +1928,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="15">
+    <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>Internal Temperature - D</t>
@@ -1969,7 +1962,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="16">
+    <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Temperature Y - K</t>
@@ -2003,7 +1996,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="17">
+    <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Temperature Y - D</t>
@@ -2037,7 +2030,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="18">
+    <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Temperature Z - K</t>
@@ -2071,7 +2064,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="19">
+    <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>Temperature Z - D</t>

--- a/ProductionTests/Sthv2.1.5.xlsx
+++ b/ProductionTests/Sthv2.1.5.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -204,6 +204,9 @@
     <t>Production Date</t>
   </si>
   <si>
+    <t>20191004</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -216,39 +219,48 @@
     <t>Batch Number</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Consecutive number for manufactured devices</t>
   </si>
   <si>
     <t>Acceleration X - K</t>
   </si>
   <si>
+    <t>0.0030518043786287308</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Calibration Factor K for Acceleration X -&gt; y=kx+d</t>
+  </si>
+  <si>
+    <t>Acceleration X - D</t>
+  </si>
+  <si>
+    <t>-99.65361785888672</t>
+  </si>
+  <si>
+    <t>Calibration Factor d for Acceleration X -&gt; y=kx+d</t>
+  </si>
+  <si>
+    <t>Acceleration Y - K</t>
+  </si>
+  <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Calibration Factor K for Acceleration X -&gt; y=kx+d</t>
-  </si>
-  <si>
-    <t>Acceleration X - D</t>
+    <t>Calibration Factor K for Acceleration Y -&gt; y=kx+d</t>
+  </si>
+  <si>
+    <t>Acceleration Y - D</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>Calibration Factor d for Acceleration X -&gt; y=kx+d</t>
-  </si>
-  <si>
-    <t>Acceleration Y - K</t>
-  </si>
-  <si>
-    <t>Calibration Factor K for Acceleration Y -&gt; y=kx+d</t>
-  </si>
-  <si>
-    <t>Acceleration Y - D</t>
-  </si>
-  <si>
     <t>Calibration Factor d for Acceleration Y -&gt; y=kx+d</t>
   </si>
   <si>
@@ -267,12 +279,18 @@
     <t>Voltage Battery - K</t>
   </si>
   <si>
+    <t>0.00028701781411655247</t>
+  </si>
+  <si>
     <t>Calibration Factor K for Battery Voltage -&gt; y=kx+d</t>
   </si>
   <si>
     <t>Voltage Battery - D</t>
   </si>
   <si>
+    <t>0.058589935302734375</t>
+  </si>
+  <si>
     <t>Calibration Factor d for Battery Voltage -&gt; y=kx+d</t>
   </si>
   <si>
@@ -336,7 +354,7 @@
     <t>Calibration Factor d for Temperature Z -&gt; y=kx+d</t>
   </si>
   <si>
-    <t>[0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x00, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0]</t>
+    <t>[0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0, 0x0]</t>
   </si>
 </sst>
 </file>
@@ -703,7 +721,7 @@
     <col min="8" max="8" width="79.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,7 +747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -751,7 +769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -775,7 +793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -801,7 +819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -827,7 +845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -853,7 +871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -889,7 +907,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +922,7 @@
     <col min="8" max="8" width="104.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -954,7 +972,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -978,7 +996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -1002,7 +1020,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1026,7 +1044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1050,7 +1068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1074,7 +1092,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -1098,7 +1116,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1122,7 +1140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -1146,7 +1164,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1170,7 +1188,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -1194,7 +1212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1236,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1232,7 +1250,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1263,7 +1281,7 @@
     <col min="8" max="8" width="99.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -1313,7 +1331,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
@@ -1337,7 +1355,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
@@ -1363,7 +1381,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -1387,7 +1405,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
@@ -1411,7 +1429,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -1424,22 +1442,22 @@
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2">
-        <v>20190905</v>
+      <c r="E7" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>28</v>
@@ -1450,15 +1468,15 @@
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
+      <c r="E8" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1484,7 +1502,7 @@
     <col min="8" max="8" width="68.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1510,9 +1528,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1524,19 +1542,19 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2">
         <v>4</v>
@@ -1548,19 +1566,19 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2">
         <v>8</v>
@@ -1572,19 +1590,19 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2">
         <v>12</v>
@@ -1596,19 +1614,19 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2">
         <v>16</v>
@@ -1620,19 +1638,19 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2">
         <v>20</v>
@@ -1644,19 +1662,19 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2">
         <v>24</v>
@@ -1668,19 +1686,19 @@
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B9" s="2">
         <v>28</v>
@@ -1692,19 +1710,19 @@
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B10" s="2">
         <v>32</v>
@@ -1716,19 +1734,19 @@
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B11" s="2">
         <v>36</v>
@@ -1740,19 +1758,19 @@
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B12" s="2">
         <v>40</v>
@@ -1764,19 +1782,19 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2">
         <v>44</v>
@@ -1788,19 +1806,19 @@
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B14" s="2">
         <v>48</v>
@@ -1812,19 +1830,19 @@
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B15" s="2">
         <v>52</v>
@@ -1836,19 +1854,19 @@
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B16" s="2">
         <v>56</v>
@@ -1860,19 +1878,19 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B17" s="2">
         <v>60</v>
@@ -1884,19 +1902,19 @@
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B18" s="2">
         <v>66</v>
@@ -1908,19 +1926,19 @@
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B19" s="2">
         <v>70</v>
@@ -1932,14 +1950,14 @@
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/ProductionTests/Sthv2.1.5.xlsx
+++ b/ProductionTests/Sthv2.1.5.xlsx
@@ -1367,7 +1367,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20191008</t>
+          <t>20191009</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F8" s="2" t="n"/>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>0.003052281215786934</t>
+          <t>0.0030518043786287308</t>
         </is>
       </c>
       <c r="F2" s="2" t="n"/>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>-99.65972137451172</t>
+          <t>-99.62920379638672</t>
         </is>
       </c>
       <c r="F3" s="2" t="n"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0.057728882879018784</t>
+          <t>0.07954223453998566</t>
         </is>
       </c>
       <c r="F9" s="2" t="n"/>

--- a/ProductionTests/Sthv2.1.5.xlsx
+++ b/ProductionTests/Sthv2.1.5.xlsx
@@ -1367,7 +1367,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20191009</t>
+          <t>20191021</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F8" s="2" t="n"/>
